--- a/old_image/appointmentresponse.xlsx
+++ b/old_image/appointmentresponse.xlsx
@@ -497,7 +497,7 @@
     <t>AppointmentResponse.participantStatus</t>
   </si>
   <si>
-    <t>accepted | declined | tentative | in-process | completed | needs-action | entered-in-error</t>
+    <t>accepted | declined | tentative | needs-action</t>
   </si>
   <si>
     <t>Participation status of the participant. When the status is declined or tentative if the start/end times are different to the appointment, then these times should be interpreted as a requested time change. When the status is accepted, the times can either be the time of the appointment (as a confirmation of the time) or can be empty.</t>
